--- a/results/supplementary/Table S4. MCMC_model results.xlsx
+++ b/results/supplementary/Table S4. MCMC_model results.xlsx
@@ -1038,6 +1038,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1056,24 +1092,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1083,37 +1104,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1460,7 +1460,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B24"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,21 +1480,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
     </row>
     <row r="2" spans="1:13" s="32" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
@@ -1538,22 +1538,22 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="90" t="s">
+      <c r="F3" s="81" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="40" t="s">
@@ -1579,12 +1579,12 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="33" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="91"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="99"/>
       <c r="G4" s="38" t="s">
         <v>67</v>
       </c>
@@ -1606,12 +1606,12 @@
       <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" s="33" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="92"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="44" t="s">
         <v>68</v>
       </c>
@@ -1688,21 +1688,21 @@
       <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="83"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="95"/>
     </row>
     <row r="10" spans="1:13" s="32" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
@@ -1752,7 +1752,7 @@
       <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="81" t="s">
         <v>79</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1793,7 +1793,7 @@
       <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="7" t="s">
         <v>93</v>
       </c>
@@ -1826,22 +1826,22 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="81" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="40" t="s">
@@ -1865,12 +1865,12 @@
       <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="56" t="s">
         <v>21</v>
       </c>
@@ -1894,12 +1894,12 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="38" t="s">
         <v>47</v>
       </c>
@@ -1923,12 +1923,12 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="89"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="57" t="s">
         <v>48</v>
       </c>
@@ -1952,20 +1952,20 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="96" t="s">
+      <c r="B17" s="84"/>
+      <c r="C17" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="90" t="s">
+      <c r="F17" s="81" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="40" t="s">
@@ -1989,12 +1989,12 @@
       <c r="M17" s="60"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="56" t="s">
         <v>21</v>
       </c>
@@ -2018,12 +2018,12 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="38" t="s">
         <v>20</v>
       </c>
@@ -2045,12 +2045,12 @@
       <c r="M19" s="61"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="70" t="s">
         <v>19</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="A21" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="86" t="s">
         <v>115</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2118,7 +2118,7 @@
       <c r="A22" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="98"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="7" t="s">
         <v>7</v>
       </c>
@@ -2155,7 +2155,7 @@
       <c r="A23" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="91" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="76" t="s">
@@ -2194,7 +2194,7 @@
       <c r="A24" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="102"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="77" t="s">
         <v>7</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="A25" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="89" t="s">
         <v>88</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2272,7 +2272,7 @@
       <c r="A26" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="100"/>
+      <c r="B26" s="90"/>
       <c r="C26" s="7" t="s">
         <v>7</v>
       </c>
@@ -2312,7 +2312,7 @@
       <c r="B27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="81" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -2351,7 +2351,7 @@
       <c r="B28" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="92"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="7" t="s">
         <v>109</v>
       </c>
@@ -2388,7 +2388,7 @@
       <c r="B29" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="81" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="78" t="s">
@@ -2427,7 +2427,7 @@
       <c r="B30" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="92"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="79" t="s">
         <v>102</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="B31" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="90" t="s">
+      <c r="C31" s="81" t="s">
         <v>0</v>
       </c>
       <c r="D31" s="78" t="s">
@@ -2503,7 +2503,7 @@
       <c r="B32" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="92"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="79" t="s">
         <v>108</v>
       </c>
@@ -2540,7 +2540,7 @@
       <c r="B33" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="90" t="s">
+      <c r="C33" s="81" t="s">
         <v>112</v>
       </c>
       <c r="D33" s="78" t="s">
@@ -2579,7 +2579,7 @@
       <c r="B34" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="92"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="79" t="s">
         <v>114</v>
       </c>
@@ -2613,17 +2613,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A9:M9"/>
@@ -2640,6 +2629,17 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2718,7 +2718,7 @@
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="81" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2759,7 +2759,7 @@
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
@@ -2795,19 +2795,19 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="105" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -2831,16 +2831,16 @@
       <c r="L4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="103" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
       <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
@@ -2862,14 +2862,14 @@
       <c r="L5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="105"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="103"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
       <c r="F6" s="2" t="s">
         <v>47</v>
       </c>
@@ -2889,14 +2889,14 @@
         <v>0.28399999999999997</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="105"/>
+      <c r="M6" s="103"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="103"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="23" t="s">
         <v>48</v>
       </c>
@@ -2918,20 +2918,20 @@
       <c r="L7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="104"/>
+      <c r="M7" s="105"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="103"/>
-      <c r="B8" s="90" t="s">
+      <c r="A8" s="106"/>
+      <c r="B8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="90" t="s">
+      <c r="C8" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="81" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -2955,16 +2955,16 @@
       <c r="L8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="106" t="s">
+      <c r="M8" s="104" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="103"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
       <c r="F9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2986,14 +2986,14 @@
       <c r="L9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M9" s="105"/>
+      <c r="M9" s="103"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="103"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
       <c r="F10" s="2" t="s">
         <v>23</v>
       </c>
@@ -3013,14 +3013,14 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="105"/>
+      <c r="M10" s="103"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="23" t="s">
         <v>22</v>
       </c>
@@ -3040,20 +3040,20 @@
         <v>0.15329999999999999</v>
       </c>
       <c r="L11" s="26"/>
-      <c r="M11" s="104"/>
+      <c r="M11" s="105"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="90" t="s">
+      <c r="A12" s="106"/>
+      <c r="B12" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="81" t="s">
         <v>24</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -3077,16 +3077,16 @@
       <c r="L12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M12" s="106" t="s">
+      <c r="M12" s="104" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
       <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
@@ -3108,14 +3108,14 @@
       <c r="L13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M13" s="105"/>
+      <c r="M13" s="103"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="103"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
@@ -3135,14 +3135,14 @@
         <v>0.2258</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="105"/>
+      <c r="M14" s="103"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="103"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="23" t="s">
         <v>19</v>
       </c>
@@ -3162,10 +3162,10 @@
         <v>0.22289999999999999</v>
       </c>
       <c r="L15" s="26"/>
-      <c r="M15" s="105"/>
+      <c r="M15" s="103"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="86" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -3206,7 +3206,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="98"/>
+      <c r="A17" s="88"/>
       <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
@@ -3243,7 +3243,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="86" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -3282,7 +3282,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="97"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="7" t="s">
         <v>14</v>
       </c>
@@ -3321,7 +3321,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
+      <c r="A20" s="87"/>
       <c r="B20" s="5" t="s">
         <v>16</v>
       </c>
@@ -3356,7 +3356,7 @@
       <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="97"/>
+      <c r="A21" s="87"/>
       <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
+      <c r="A22" s="87"/>
       <c r="B22" s="5" t="s">
         <v>16</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="M22" s="18"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="98"/>
+      <c r="A23" s="88"/>
       <c r="B23" s="7" t="s">
         <v>14</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="A24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="105" t="s">
+      <c r="B24" s="103" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="9" t="s">
@@ -3507,7 +3507,7 @@
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="105"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="103" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -3571,7 +3571,7 @@
       <c r="A27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="104"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="3" t="s">
         <v>6</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="104" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -3623,7 +3623,7 @@
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="105"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="3" t="s">
         <v>6</v>
       </c>
@@ -3646,12 +3646,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B26:B27"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B4:B7"/>
@@ -3668,6 +3662,12 @@
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
